--- a/data/pca/factorExposure/factorExposure_2017-08-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02384195461953632</v>
+        <v>-0.008142900826783393</v>
       </c>
       <c r="C2">
-        <v>-0.000428284612075295</v>
+        <v>-0.0426922384991122</v>
       </c>
       <c r="D2">
-        <v>0.02030608239501785</v>
+        <v>-0.03000191560038569</v>
       </c>
       <c r="E2">
-        <v>0.009752634134159825</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0334666538799364</v>
+      </c>
+      <c r="F2">
+        <v>-0.01566441404222686</v>
+      </c>
+      <c r="G2">
+        <v>0.0468673703630473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01583736897630183</v>
+        <v>-0.05470278605157186</v>
       </c>
       <c r="C3">
-        <v>-0.05502591907141553</v>
+        <v>-0.0661019512754495</v>
       </c>
       <c r="D3">
-        <v>0.007929035825831654</v>
+        <v>-0.01498830672647171</v>
       </c>
       <c r="E3">
-        <v>0.004624400682534976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.0991836009367372</v>
+      </c>
+      <c r="F3">
+        <v>-0.0407388800644137</v>
+      </c>
+      <c r="G3">
+        <v>0.1075880498432605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02356251188175197</v>
+        <v>-0.05958545314210263</v>
       </c>
       <c r="C4">
-        <v>-0.01998455859963444</v>
+        <v>-0.06132792864092725</v>
       </c>
       <c r="D4">
-        <v>0.06200294720222286</v>
+        <v>-0.0235231448145744</v>
       </c>
       <c r="E4">
-        <v>-0.01528744044439765</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01876704421698483</v>
+      </c>
+      <c r="F4">
+        <v>-0.008619560691908184</v>
+      </c>
+      <c r="G4">
+        <v>0.05829567513500291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01504102842411463</v>
+        <v>-0.04047414072011766</v>
       </c>
       <c r="C6">
-        <v>-0.009440372161792323</v>
+        <v>-0.04929599172561779</v>
       </c>
       <c r="D6">
-        <v>0.08795994968405203</v>
+        <v>-0.01568906481871451</v>
       </c>
       <c r="E6">
-        <v>-0.01037484884270717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01768440752775991</v>
+      </c>
+      <c r="F6">
+        <v>-0.01375041933088317</v>
+      </c>
+      <c r="G6">
+        <v>0.0355710122161613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01077788865523062</v>
+        <v>-0.01796788484875216</v>
       </c>
       <c r="C7">
-        <v>-0.005629272088767884</v>
+        <v>-0.03620203540874681</v>
       </c>
       <c r="D7">
-        <v>0.02891490471319317</v>
+        <v>-0.01335400883857174</v>
       </c>
       <c r="E7">
-        <v>-0.07628185346509377</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008101521421559484</v>
+      </c>
+      <c r="F7">
+        <v>-0.00348766164440122</v>
+      </c>
+      <c r="G7">
+        <v>0.1023007164741781</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8.501010596736684e-05</v>
+        <v>-0.0009671130453500052</v>
       </c>
       <c r="C8">
-        <v>-0.001496702488502687</v>
+        <v>-0.02018832323520627</v>
       </c>
       <c r="D8">
-        <v>0.004427149953075075</v>
+        <v>-0.003853422173071189</v>
       </c>
       <c r="E8">
-        <v>-0.005697844682048818</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02309177909613957</v>
+      </c>
+      <c r="F8">
+        <v>-0.01981238340163176</v>
+      </c>
+      <c r="G8">
+        <v>0.02999890981290161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01641032151236</v>
+        <v>-0.03489967506271013</v>
       </c>
       <c r="C9">
-        <v>-0.02123356283268401</v>
+        <v>-0.04345749160264507</v>
       </c>
       <c r="D9">
-        <v>0.04788671952757023</v>
+        <v>-0.01625877665178164</v>
       </c>
       <c r="E9">
-        <v>-0.006076823994838881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01358763117764221</v>
+      </c>
+      <c r="F9">
+        <v>-0.01538695133572809</v>
+      </c>
+      <c r="G9">
+        <v>0.05585576559532531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02020528265638515</v>
+        <v>-0.08767630539744893</v>
       </c>
       <c r="C10">
-        <v>-0.1646809659575271</v>
+        <v>0.186827006096057</v>
       </c>
       <c r="D10">
-        <v>-0.1157271793073814</v>
+        <v>0.01728947600172046</v>
       </c>
       <c r="E10">
-        <v>-0.0104663572866095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01061973780519807</v>
+      </c>
+      <c r="F10">
+        <v>0.01448776013763713</v>
+      </c>
+      <c r="G10">
+        <v>0.04836052223158665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.000742368020034187</v>
+        <v>-0.03440093144136702</v>
       </c>
       <c r="C11">
-        <v>-0.007448662689584994</v>
+        <v>-0.05318025067943501</v>
       </c>
       <c r="D11">
-        <v>0.0423253075422908</v>
+        <v>-0.002594109603935193</v>
       </c>
       <c r="E11">
-        <v>0.005512624888127349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008125053296102757</v>
+      </c>
+      <c r="F11">
+        <v>-0.02440961275033687</v>
+      </c>
+      <c r="G11">
+        <v>0.03873644166862385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006306538347868235</v>
+        <v>-0.03668061494128264</v>
       </c>
       <c r="C12">
-        <v>-0.01315639255283874</v>
+        <v>-0.04587353985681847</v>
       </c>
       <c r="D12">
-        <v>0.04530073223113159</v>
+        <v>-0.006211585047547501</v>
       </c>
       <c r="E12">
-        <v>-0.003515283217087332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001521554107770937</v>
+      </c>
+      <c r="F12">
+        <v>-0.006252800530965284</v>
+      </c>
+      <c r="G12">
+        <v>0.03809308243743973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0225447859989589</v>
+        <v>-0.01705283517472479</v>
       </c>
       <c r="C13">
-        <v>-0.01555778243328423</v>
+        <v>-0.03108935210856118</v>
       </c>
       <c r="D13">
-        <v>0.01123280092348866</v>
+        <v>-0.0252169738132773</v>
       </c>
       <c r="E13">
-        <v>0.009319827628300657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02419710007931313</v>
+      </c>
+      <c r="F13">
+        <v>-0.01202838056851378</v>
+      </c>
+      <c r="G13">
+        <v>0.05540027248453023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007922181649375569</v>
+        <v>-0.008858012310426287</v>
       </c>
       <c r="C14">
-        <v>-0.01439975834952488</v>
+        <v>-0.02475641134085035</v>
       </c>
       <c r="D14">
-        <v>0.01230898530703468</v>
+        <v>-0.00874006100299156</v>
       </c>
       <c r="E14">
-        <v>-0.01322298862100192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004149666016265345</v>
+      </c>
+      <c r="F14">
+        <v>0.003074953405250353</v>
+      </c>
+      <c r="G14">
+        <v>0.05778418273512922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001550100563984054</v>
+        <v>-0.03295083207512633</v>
       </c>
       <c r="C16">
-        <v>-0.01311532971517949</v>
+        <v>-0.04361003477581291</v>
       </c>
       <c r="D16">
-        <v>0.04807434633300788</v>
+        <v>-0.001862711296081486</v>
       </c>
       <c r="E16">
-        <v>-0.003415885922410587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006113414827524595</v>
+      </c>
+      <c r="F16">
+        <v>-0.009380164210069637</v>
+      </c>
+      <c r="G16">
+        <v>0.04012992432184644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01422585881326349</v>
+        <v>-0.02482307282234873</v>
       </c>
       <c r="C19">
-        <v>-0.0242389795768234</v>
+        <v>-0.04703958546844516</v>
       </c>
       <c r="D19">
-        <v>0.01990854250969741</v>
+        <v>-0.01678845032651626</v>
       </c>
       <c r="E19">
-        <v>-0.006945133813605555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05537173599713846</v>
+      </c>
+      <c r="F19">
+        <v>-0.02260754620658353</v>
+      </c>
+      <c r="G19">
+        <v>0.06793929372096626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01110583778503192</v>
+        <v>-0.01436645456834512</v>
       </c>
       <c r="C20">
-        <v>-0.009251071755687562</v>
+        <v>-0.03266406014224613</v>
       </c>
       <c r="D20">
-        <v>0.009167280911705995</v>
+        <v>-0.01338945216341989</v>
       </c>
       <c r="E20">
-        <v>0.001146746084905597</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0248470533765015</v>
+      </c>
+      <c r="F20">
+        <v>0.001203180257203454</v>
+      </c>
+      <c r="G20">
+        <v>0.05433112803358467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01512602111692616</v>
+        <v>-0.01418650538374973</v>
       </c>
       <c r="C21">
-        <v>-0.02410549418930354</v>
+        <v>-0.0337425611155611</v>
       </c>
       <c r="D21">
-        <v>0.02241884337095332</v>
+        <v>-0.01715872401912367</v>
       </c>
       <c r="E21">
-        <v>-0.01934815629527917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03369117788946372</v>
+      </c>
+      <c r="F21">
+        <v>-0.004532693380354079</v>
+      </c>
+      <c r="G21">
+        <v>0.07965654430772071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004552657150627038</v>
+        <v>-0.02740245189436858</v>
       </c>
       <c r="C24">
-        <v>-0.001472770489035431</v>
+        <v>-0.0477355125810688</v>
       </c>
       <c r="D24">
-        <v>0.04333339984264764</v>
+        <v>-0.007413790178565052</v>
       </c>
       <c r="E24">
-        <v>-0.001612632420871606</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.003936540378501101</v>
+      </c>
+      <c r="F24">
+        <v>-0.02061146776127571</v>
+      </c>
+      <c r="G24">
+        <v>0.04289193750518734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01209587000526042</v>
+        <v>-0.04236307593339839</v>
       </c>
       <c r="C25">
-        <v>-0.01753954825120493</v>
+        <v>-0.05444883870107043</v>
       </c>
       <c r="D25">
-        <v>0.04589935868276038</v>
+        <v>-0.01139756388876945</v>
       </c>
       <c r="E25">
-        <v>-0.000633635880579652</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004125154979378477</v>
+      </c>
+      <c r="F25">
+        <v>-0.01415765776277182</v>
+      </c>
+      <c r="G25">
+        <v>0.04752720337561518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02315683373121008</v>
+        <v>-0.01448815814267704</v>
       </c>
       <c r="C26">
-        <v>-0.01102805409909465</v>
+        <v>-0.00854799828189878</v>
       </c>
       <c r="D26">
-        <v>-0.006656898401793587</v>
+        <v>-0.02341171561178557</v>
       </c>
       <c r="E26">
-        <v>-0.008980805249342045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003210777211152029</v>
+      </c>
+      <c r="F26">
+        <v>0.003019751986150412</v>
+      </c>
+      <c r="G26">
+        <v>0.04376251405448148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04247582525885876</v>
+        <v>-0.1124332577972608</v>
       </c>
       <c r="C28">
-        <v>-0.2362267833224381</v>
+        <v>0.2362470808399744</v>
       </c>
       <c r="D28">
-        <v>-0.1637933109546156</v>
+        <v>0.008665714289498708</v>
       </c>
       <c r="E28">
-        <v>-0.01931356230893549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.00119555374746343</v>
+      </c>
+      <c r="F28">
+        <v>0.01536935946539351</v>
+      </c>
+      <c r="G28">
+        <v>0.06347728243296553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.008319557847339879</v>
+        <v>-0.01138972396347765</v>
       </c>
       <c r="C29">
-        <v>-0.01843859965616654</v>
+        <v>-0.01893222388195641</v>
       </c>
       <c r="D29">
-        <v>0.01139227129683673</v>
+        <v>-0.007492417636621834</v>
       </c>
       <c r="E29">
-        <v>-0.008685009399695484</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007018949437041241</v>
+      </c>
+      <c r="F29">
+        <v>0.01250065113675697</v>
+      </c>
+      <c r="G29">
+        <v>0.04765648536357404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02362578149055307</v>
+        <v>-0.04696697594605331</v>
       </c>
       <c r="C30">
-        <v>-0.005344252968212593</v>
+        <v>-0.06189780641702753</v>
       </c>
       <c r="D30">
-        <v>0.06325016550197812</v>
+        <v>-0.02807468421184044</v>
       </c>
       <c r="E30">
-        <v>0.05278726674219728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04555509226343214</v>
+      </c>
+      <c r="F30">
+        <v>-0.05354546820803647</v>
+      </c>
+      <c r="G30">
+        <v>0.03271929283015976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.00965230190470457</v>
+        <v>-0.05355448036688658</v>
       </c>
       <c r="C31">
-        <v>-0.04253094790568263</v>
+        <v>-0.03202509020177839</v>
       </c>
       <c r="D31">
-        <v>0.04231232409714297</v>
+        <v>-0.003185794187091202</v>
       </c>
       <c r="E31">
-        <v>-0.01122507473361021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.00782598139011392</v>
+      </c>
+      <c r="F31">
+        <v>0.03481069955540064</v>
+      </c>
+      <c r="G31">
+        <v>0.04743586128177928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.006107682931760677</v>
+        <v>0.005077249692957431</v>
       </c>
       <c r="C32">
-        <v>-0.01889826925996973</v>
+        <v>-0.02744207361180792</v>
       </c>
       <c r="D32">
-        <v>-0.0009545271240138912</v>
+        <v>0.003678615004815099</v>
       </c>
       <c r="E32">
-        <v>-0.03461396367128736</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01657477792516545</v>
+      </c>
+      <c r="F32">
+        <v>-0.04641133886319869</v>
+      </c>
+      <c r="G32">
+        <v>0.06921994696697156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01395734399464822</v>
+        <v>-0.027794761243975</v>
       </c>
       <c r="C33">
-        <v>-0.02654691922225032</v>
+        <v>-0.04480006278569236</v>
       </c>
       <c r="D33">
-        <v>0.02254788505697103</v>
+        <v>-0.01493473995708242</v>
       </c>
       <c r="E33">
-        <v>0.02301048847843315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.0284594040363543</v>
+      </c>
+      <c r="F33">
+        <v>-0.02420723772879985</v>
+      </c>
+      <c r="G33">
+        <v>0.0613660525619746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003996513885581345</v>
+        <v>-0.04055075914890995</v>
       </c>
       <c r="C34">
-        <v>-0.0190814683911097</v>
+        <v>-0.05675561768915775</v>
       </c>
       <c r="D34">
-        <v>0.04895811050971788</v>
+        <v>0.004394682384118716</v>
       </c>
       <c r="E34">
-        <v>-0.008545328656185834</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.003086146458757195</v>
+      </c>
+      <c r="F34">
+        <v>-0.02673690425065453</v>
+      </c>
+      <c r="G34">
+        <v>0.04871082550784761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01328966886791971</v>
+        <v>-0.01440492063295729</v>
       </c>
       <c r="C36">
-        <v>-0.02233805496867572</v>
+        <v>-0.008966908454586473</v>
       </c>
       <c r="D36">
-        <v>0.004070315663274278</v>
+        <v>-0.01165864418788455</v>
       </c>
       <c r="E36">
-        <v>-0.003253033351440283</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001141275493307054</v>
+      </c>
+      <c r="F36">
+        <v>0.003978227650725102</v>
+      </c>
+      <c r="G36">
+        <v>0.03910098325041284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003248549913445312</v>
+        <v>-0.03229481038914676</v>
       </c>
       <c r="C38">
-        <v>-0.0360802909610213</v>
+        <v>-0.02720518621455471</v>
       </c>
       <c r="D38">
-        <v>0.03376593690774739</v>
+        <v>0.007449951274021872</v>
       </c>
       <c r="E38">
-        <v>-0.004030101859316129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.004096361991035089</v>
+      </c>
+      <c r="F38">
+        <v>0.009602079642166578</v>
+      </c>
+      <c r="G38">
+        <v>0.04688450882683568</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005189786294155815</v>
+        <v>-0.03374562462948035</v>
       </c>
       <c r="C39">
-        <v>0.01682949859963105</v>
+        <v>-0.0804308946638225</v>
       </c>
       <c r="D39">
-        <v>0.09097784873625031</v>
+        <v>-0.0124761169611431</v>
       </c>
       <c r="E39">
-        <v>0.005616267195976366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02284865457130512</v>
+      </c>
+      <c r="F39">
+        <v>-0.0324954734231978</v>
+      </c>
+      <c r="G39">
+        <v>0.04311035347888054</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01271406191644143</v>
+        <v>-0.01918703934426233</v>
       </c>
       <c r="C40">
-        <v>-0.02375058543480517</v>
+        <v>-0.03055353094205009</v>
       </c>
       <c r="D40">
-        <v>0.03095752591978854</v>
+        <v>-0.01350530737059771</v>
       </c>
       <c r="E40">
-        <v>0.001121028755774159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02006346228524861</v>
+      </c>
+      <c r="F40">
+        <v>-0.01430949189464047</v>
+      </c>
+      <c r="G40">
+        <v>0.04311324563315972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006284438319079813</v>
+        <v>-0.01501491935177516</v>
       </c>
       <c r="C41">
-        <v>-0.02166472523893966</v>
+        <v>-0.001021616231835215</v>
       </c>
       <c r="D41">
-        <v>-0.008884945351333547</v>
+        <v>-0.003691025881387122</v>
       </c>
       <c r="E41">
-        <v>-0.002952185605194988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002651560395350422</v>
+      </c>
+      <c r="F41">
+        <v>0.007570726215309789</v>
+      </c>
+      <c r="G41">
+        <v>0.02586867729068469</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09320891725604841</v>
+        <v>-0.01351217269296182</v>
       </c>
       <c r="C42">
-        <v>0.004112623619057699</v>
+        <v>-0.03900388529301524</v>
       </c>
       <c r="D42">
-        <v>0.2642620277181022</v>
+        <v>-0.09429690621092165</v>
       </c>
       <c r="E42">
-        <v>0.2934658331074212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03377017520321059</v>
+      </c>
+      <c r="F42">
+        <v>0.04125503183373851</v>
+      </c>
+      <c r="G42">
+        <v>-0.1708596750732418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.007798010120956036</v>
+        <v>-0.03064545956764139</v>
       </c>
       <c r="C43">
-        <v>-0.02632943348195475</v>
+        <v>-0.01100222890870463</v>
       </c>
       <c r="D43">
-        <v>-0.01359675333119268</v>
+        <v>-0.00504812377041064</v>
       </c>
       <c r="E43">
-        <v>0.004158309254894936</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.009563649448120073</v>
+      </c>
+      <c r="F43">
+        <v>-0.001647505677535974</v>
+      </c>
+      <c r="G43">
+        <v>0.03967190975694775</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003504009299968756</v>
+        <v>-0.01752762833568185</v>
       </c>
       <c r="C44">
-        <v>-0.007853809152930583</v>
+        <v>-0.04763280151796977</v>
       </c>
       <c r="D44">
-        <v>0.02683051719735466</v>
+        <v>-0.006111635027132256</v>
       </c>
       <c r="E44">
-        <v>-0.001915959836208001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01642268698320449</v>
+      </c>
+      <c r="F44">
+        <v>-0.0007995023530449209</v>
+      </c>
+      <c r="G44">
+        <v>0.05885316217909991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01126306895072189</v>
+        <v>-0.007103609716290347</v>
       </c>
       <c r="C46">
-        <v>-0.01646640164101366</v>
+        <v>-0.01621574910704801</v>
       </c>
       <c r="D46">
-        <v>0.01187249227287402</v>
+        <v>-0.01150883258686089</v>
       </c>
       <c r="E46">
-        <v>-0.002767594939252462</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005639049098533064</v>
+      </c>
+      <c r="F46">
+        <v>0.01604875299877478</v>
+      </c>
+      <c r="G46">
+        <v>0.04532545351962343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004048505443733757</v>
+        <v>-0.07903845062047064</v>
       </c>
       <c r="C47">
-        <v>-0.05433273588324525</v>
+        <v>-0.06289240152993951</v>
       </c>
       <c r="D47">
-        <v>0.0590883237382621</v>
+        <v>0.005291950652014852</v>
       </c>
       <c r="E47">
-        <v>-0.001904683880489222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01176330148152497</v>
+      </c>
+      <c r="F47">
+        <v>0.05363332882564002</v>
+      </c>
+      <c r="G47">
+        <v>0.04339240253974108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00418128953335044</v>
+        <v>-0.02125624206521151</v>
       </c>
       <c r="C48">
-        <v>-0.02776460257247275</v>
+        <v>-0.00926527394953767</v>
       </c>
       <c r="D48">
-        <v>0.0111702392672102</v>
+        <v>-0.0008155617978275263</v>
       </c>
       <c r="E48">
-        <v>-0.003390823778477789</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004230762644242995</v>
+      </c>
+      <c r="F48">
+        <v>0.01634144575596735</v>
+      </c>
+      <c r="G48">
+        <v>0.04447170392987678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006006510163083885</v>
+        <v>-0.08026343585722044</v>
       </c>
       <c r="C50">
-        <v>-0.05387505197485017</v>
+        <v>-0.06317326584460835</v>
       </c>
       <c r="D50">
-        <v>0.0621845835695331</v>
+        <v>0.00350387027467281</v>
       </c>
       <c r="E50">
-        <v>-0.0322195706629647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01543753215229337</v>
+      </c>
+      <c r="F50">
+        <v>0.0555995207486885</v>
+      </c>
+      <c r="G50">
+        <v>0.07003391732561322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007452541737486659</v>
+        <v>-0.01307852601926576</v>
       </c>
       <c r="C51">
-        <v>-0.01747888134198336</v>
+        <v>-0.03074909140824947</v>
       </c>
       <c r="D51">
-        <v>-0.001336786355278142</v>
+        <v>-0.009801737128609531</v>
       </c>
       <c r="E51">
-        <v>-0.004956281400126291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01351810083974991</v>
+      </c>
+      <c r="F51">
+        <v>-0.02956428367258149</v>
+      </c>
+      <c r="G51">
+        <v>0.0675763070047395</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007302008485119907</v>
+        <v>-0.08657616195041408</v>
       </c>
       <c r="C53">
-        <v>-0.0660125753339138</v>
+        <v>-0.07513905688212952</v>
       </c>
       <c r="D53">
-        <v>0.1180732992917845</v>
+        <v>0.004796435046207165</v>
       </c>
       <c r="E53">
-        <v>-0.009389169782665166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03496094500245439</v>
+      </c>
+      <c r="F53">
+        <v>0.05705619007986436</v>
+      </c>
+      <c r="G53">
+        <v>0.04033199015114271</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001300739421374345</v>
+        <v>-0.03231181797293894</v>
       </c>
       <c r="C54">
-        <v>-0.03583459719813122</v>
+        <v>-0.01072069287559297</v>
       </c>
       <c r="D54">
-        <v>-0.007220096321464158</v>
+        <v>0.002782127369570464</v>
       </c>
       <c r="E54">
-        <v>-0.01077164663629324</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002315452537260249</v>
+      </c>
+      <c r="F54">
+        <v>0.003411738669299853</v>
+      </c>
+      <c r="G54">
+        <v>0.04932591268884107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003708850989501565</v>
+        <v>-0.07531339313759446</v>
       </c>
       <c r="C55">
-        <v>-0.04662568592464381</v>
+        <v>-0.06742829373300613</v>
       </c>
       <c r="D55">
-        <v>0.103672176026773</v>
+        <v>0.005442916265605375</v>
       </c>
       <c r="E55">
-        <v>0.001760712983704948</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02766880645165093</v>
+      </c>
+      <c r="F55">
+        <v>0.05990483527776876</v>
+      </c>
+      <c r="G55">
+        <v>0.02487264736046765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006319004874524895</v>
+        <v>-0.1464619309598507</v>
       </c>
       <c r="C56">
-        <v>-0.09265647365549363</v>
+        <v>-0.09998288781927607</v>
       </c>
       <c r="D56">
-        <v>0.1512415958503743</v>
+        <v>0.01300488476712702</v>
       </c>
       <c r="E56">
-        <v>-0.001033670448456111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03963556049717394</v>
+      </c>
+      <c r="F56">
+        <v>0.07902429408319446</v>
+      </c>
+      <c r="G56">
+        <v>0.0106170493129702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02428972475770558</v>
+        <v>-0.008876079647772095</v>
       </c>
       <c r="C57">
-        <v>-0.01669267735949357</v>
+        <v>-0.008749752400360128</v>
       </c>
       <c r="D57">
-        <v>0.04286050944257681</v>
+        <v>-0.02365342969431222</v>
       </c>
       <c r="E57">
-        <v>0.002638767679285333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02782107871242508</v>
+      </c>
+      <c r="F57">
+        <v>-0.01179903197749956</v>
+      </c>
+      <c r="G57">
+        <v>0.02345602628363056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01494344161790687</v>
+        <v>-0.08096003670713738</v>
       </c>
       <c r="C58">
-        <v>-0.09580548059309343</v>
+        <v>-0.02776503050493396</v>
       </c>
       <c r="D58">
-        <v>0.0973561376361476</v>
+        <v>-0.01805953067519432</v>
       </c>
       <c r="E58">
-        <v>0.2091064773021349</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9386590022533222</v>
+      </c>
+      <c r="F58">
+        <v>0.2490401538052032</v>
+      </c>
+      <c r="G58">
+        <v>-0.02553984063347685</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.03943608259042656</v>
+        <v>-0.1520688603792481</v>
       </c>
       <c r="C59">
-        <v>-0.2521630730828462</v>
+        <v>0.2161493445874683</v>
       </c>
       <c r="D59">
-        <v>-0.1642838443292688</v>
+        <v>0.01515971070330874</v>
       </c>
       <c r="E59">
-        <v>0.002091543470170438</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.005967861241165349</v>
+      </c>
+      <c r="F59">
+        <v>-0.009477410887423042</v>
+      </c>
+      <c r="G59">
+        <v>0.02156002346253045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.0408452026980611</v>
+        <v>-0.293022205304985</v>
       </c>
       <c r="C60">
-        <v>-0.1611962443741702</v>
+        <v>-0.09803808300653435</v>
       </c>
       <c r="D60">
-        <v>0.08177621991286563</v>
+        <v>-0.0133090025871331</v>
       </c>
       <c r="E60">
-        <v>0.02658430606441994</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.001893309927168702</v>
+      </c>
+      <c r="F60">
+        <v>-0.3380110319120662</v>
+      </c>
+      <c r="G60">
+        <v>-0.103817311036653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003518577393539539</v>
+        <v>-0.03655411904963178</v>
       </c>
       <c r="C61">
-        <v>-0.00800571624776448</v>
+        <v>-0.0643447572157982</v>
       </c>
       <c r="D61">
-        <v>0.06477441897446257</v>
+        <v>-0.005779985337667364</v>
       </c>
       <c r="E61">
-        <v>0.0004936549620255481</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01198050242157521</v>
+      </c>
+      <c r="F61">
+        <v>-0.02131404045950874</v>
+      </c>
+      <c r="G61">
+        <v>0.04100967118875962</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007808966676446099</v>
+        <v>-0.01463706948951246</v>
       </c>
       <c r="C63">
-        <v>-0.009328821495850971</v>
+        <v>-0.02743226131308328</v>
       </c>
       <c r="D63">
-        <v>0.008814027693786409</v>
+        <v>-0.007931122891412653</v>
       </c>
       <c r="E63">
-        <v>-0.008078647303312307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004161927860323062</v>
+      </c>
+      <c r="F63">
+        <v>0.01512529214925837</v>
+      </c>
+      <c r="G63">
+        <v>0.04954778546814315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.008664127968331437</v>
+        <v>-0.05180216540237984</v>
       </c>
       <c r="C64">
-        <v>-0.03131334160048039</v>
+        <v>-0.04126497165476459</v>
       </c>
       <c r="D64">
-        <v>0.0652456013659584</v>
+        <v>-0.005557299843897638</v>
       </c>
       <c r="E64">
-        <v>0.01232198558244801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0059142684248175</v>
+      </c>
+      <c r="F64">
+        <v>-0.004650687595838924</v>
+      </c>
+      <c r="G64">
+        <v>0.03352830826671676</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01686117127086886</v>
+        <v>-0.08360058065431543</v>
       </c>
       <c r="C65">
-        <v>-0.00836458985755972</v>
+        <v>-0.05473144015605107</v>
       </c>
       <c r="D65">
-        <v>0.1037521673203362</v>
+        <v>-0.01513630720817422</v>
       </c>
       <c r="E65">
-        <v>-0.01159966891701724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01881083863200816</v>
+      </c>
+      <c r="F65">
+        <v>-0.02923581318743956</v>
+      </c>
+      <c r="G65">
+        <v>0.01583452613029022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004872517039784367</v>
+        <v>-0.05334463395510051</v>
       </c>
       <c r="C66">
-        <v>0.01117763978443045</v>
+        <v>-0.1112995563211761</v>
       </c>
       <c r="D66">
-        <v>0.1191425224177996</v>
+        <v>-0.01222102266069934</v>
       </c>
       <c r="E66">
-        <v>0.01716953664200885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02777162183147945</v>
+      </c>
+      <c r="F66">
+        <v>-0.03686259832095162</v>
+      </c>
+      <c r="G66">
+        <v>0.04022426008817905</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003162147690490036</v>
+        <v>-0.05408677420211668</v>
       </c>
       <c r="C67">
-        <v>-0.05644903086687775</v>
+        <v>-0.03073816212173629</v>
       </c>
       <c r="D67">
-        <v>0.03947562578486584</v>
+        <v>0.005453434549259553</v>
       </c>
       <c r="E67">
-        <v>-0.004392347018760246</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.002257353308018373</v>
+      </c>
+      <c r="F67">
+        <v>0.01143087616097749</v>
+      </c>
+      <c r="G67">
+        <v>0.04490842452590332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.05691718337569029</v>
+        <v>-0.1347786986117555</v>
       </c>
       <c r="C68">
-        <v>-0.2306672034213088</v>
+        <v>0.2762098368014618</v>
       </c>
       <c r="D68">
-        <v>-0.1576491943795315</v>
+        <v>-0.002843756554651736</v>
       </c>
       <c r="E68">
-        <v>0.009307557627661264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005703165026583899</v>
+      </c>
+      <c r="F68">
+        <v>0.02751856010492994</v>
+      </c>
+      <c r="G68">
+        <v>0.02157742966569645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.001147747452136518</v>
+        <v>-0.0817836559214586</v>
       </c>
       <c r="C69">
-        <v>-0.04159034163615337</v>
+        <v>-0.06609614545393848</v>
       </c>
       <c r="D69">
-        <v>0.06274611588949364</v>
+        <v>0.009185702594775061</v>
       </c>
       <c r="E69">
-        <v>-0.002959314704127556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02908799953682998</v>
+      </c>
+      <c r="F69">
+        <v>0.03682123237691704</v>
+      </c>
+      <c r="G69">
+        <v>0.04644242832184647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04231882731442824</v>
+        <v>-0.1267605002990909</v>
       </c>
       <c r="C71">
-        <v>-0.204635292408193</v>
+        <v>0.2385057162737378</v>
       </c>
       <c r="D71">
-        <v>-0.1426196298224157</v>
+        <v>0.005933294831605164</v>
       </c>
       <c r="E71">
-        <v>-0.003885566708688678</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02372567770664511</v>
+      </c>
+      <c r="F71">
+        <v>0.004200411620394188</v>
+      </c>
+      <c r="G71">
+        <v>0.03640873147698533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-8.699522730542793e-05</v>
+        <v>-0.08740785663291659</v>
       </c>
       <c r="C72">
-        <v>-0.04822201704766659</v>
+        <v>-0.07156568450138361</v>
       </c>
       <c r="D72">
-        <v>0.136219313295299</v>
+        <v>0.007703575308602294</v>
       </c>
       <c r="E72">
-        <v>0.01380751063888728</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.00302623807185999</v>
+      </c>
+      <c r="F72">
+        <v>-0.04597823271420601</v>
+      </c>
+      <c r="G72">
+        <v>0.01927488290997095</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05393199484235259</v>
+        <v>-0.3944052313068077</v>
       </c>
       <c r="C73">
-        <v>-0.1889315216058812</v>
+        <v>-0.1101950905730366</v>
       </c>
       <c r="D73">
-        <v>0.1800705059093025</v>
+        <v>-0.02211127011100733</v>
       </c>
       <c r="E73">
-        <v>0.07841371646396615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0730430266636511</v>
+      </c>
+      <c r="F73">
+        <v>-0.549559802539445</v>
+      </c>
+      <c r="G73">
+        <v>-0.1715517682608307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003319726892641874</v>
+        <v>-0.115281532901774</v>
       </c>
       <c r="C74">
-        <v>-0.08141884424340541</v>
+        <v>-0.110714668428073</v>
       </c>
       <c r="D74">
-        <v>0.160175076947128</v>
+        <v>0.009994676301398301</v>
       </c>
       <c r="E74">
-        <v>0.004337274906978416</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01716915685620662</v>
+      </c>
+      <c r="F74">
+        <v>0.07426738750632095</v>
+      </c>
+      <c r="G74">
+        <v>0.05074650071875066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01180613549694495</v>
+        <v>-0.2524557041606403</v>
       </c>
       <c r="C75">
-        <v>-0.188375632413792</v>
+        <v>-0.1415246303477014</v>
       </c>
       <c r="D75">
-        <v>0.2849911512994607</v>
+        <v>0.03039457379578314</v>
       </c>
       <c r="E75">
-        <v>0.01423283754184118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05968443358711416</v>
+      </c>
+      <c r="F75">
+        <v>0.1867892264609432</v>
+      </c>
+      <c r="G75">
+        <v>-0.03724289597543118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.0001129887939973873</v>
+        <v>-0.1301098185227319</v>
       </c>
       <c r="C76">
-        <v>-0.1198190035727953</v>
+        <v>-0.1093498925943407</v>
       </c>
       <c r="D76">
-        <v>0.231207571616109</v>
+        <v>0.02117406469538662</v>
       </c>
       <c r="E76">
-        <v>-0.01447422078327801</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.04958344134851963</v>
+      </c>
+      <c r="F76">
+        <v>0.1190319769876488</v>
+      </c>
+      <c r="G76">
+        <v>0.02599309540658731</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0127120520621694</v>
+        <v>-0.06854586288780667</v>
       </c>
       <c r="C77">
-        <v>-0.0206770615221086</v>
+        <v>-0.05881075677738596</v>
       </c>
       <c r="D77">
-        <v>0.04970624441408997</v>
+        <v>-0.01228791454839244</v>
       </c>
       <c r="E77">
-        <v>0.009278495636953547</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04905428476987679</v>
+      </c>
+      <c r="F77">
+        <v>-0.00953257641517918</v>
+      </c>
+      <c r="G77">
+        <v>0.05056821038078284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004867918207567909</v>
+        <v>-0.04478977603841383</v>
       </c>
       <c r="C78">
-        <v>-0.01582161486715006</v>
+        <v>-0.05026269021923712</v>
       </c>
       <c r="D78">
-        <v>0.06486833476062394</v>
+        <v>-0.005632088147235424</v>
       </c>
       <c r="E78">
-        <v>-0.0004878623799394135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02072530977487934</v>
+      </c>
+      <c r="F78">
+        <v>-0.03778414279312646</v>
+      </c>
+      <c r="G78">
+        <v>0.04563967323294799</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0175271066925926</v>
+        <v>-0.05302575557063042</v>
       </c>
       <c r="C80">
-        <v>-0.08666466676668647</v>
+        <v>-0.05930892855088889</v>
       </c>
       <c r="D80">
-        <v>0.1504743028639417</v>
+        <v>-0.01296785888819554</v>
       </c>
       <c r="E80">
-        <v>-0.9098965433036501</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02717863128410506</v>
+      </c>
+      <c r="F80">
+        <v>-0.03849518775478895</v>
+      </c>
+      <c r="G80">
+        <v>0.8441607260766676</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.007831607629263831</v>
+        <v>-0.1455226753239409</v>
       </c>
       <c r="C81">
-        <v>-0.113819029968427</v>
+        <v>-0.08467145269514821</v>
       </c>
       <c r="D81">
-        <v>0.1717785773921744</v>
+        <v>0.01586763317428967</v>
       </c>
       <c r="E81">
-        <v>-0.004625199186468597</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03603403243270391</v>
+      </c>
+      <c r="F81">
+        <v>0.1284360169295535</v>
+      </c>
+      <c r="G81">
+        <v>0.02640209799480153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1191305628520484</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05564949061986353</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.006209759603962091</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08136730533746075</v>
+      </c>
+      <c r="F82">
+        <v>0.01650727163177592</v>
+      </c>
+      <c r="G82">
+        <v>0.02340481360291626</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007333958964654893</v>
+        <v>-0.03046474439739634</v>
       </c>
       <c r="C83">
-        <v>-0.02224330095779336</v>
+        <v>-0.02191783223627397</v>
       </c>
       <c r="D83">
-        <v>0.02282462058764267</v>
+        <v>-0.006072918357717486</v>
       </c>
       <c r="E83">
-        <v>-0.0008053737731356041</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02919943919610563</v>
+      </c>
+      <c r="F83">
+        <v>-0.03595835082030912</v>
+      </c>
+      <c r="G83">
+        <v>0.03382649277752759</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01797418634506974</v>
+        <v>-0.2231928692262843</v>
       </c>
       <c r="C85">
-        <v>-0.1473540137345058</v>
+        <v>-0.1363896323524659</v>
       </c>
       <c r="D85">
-        <v>0.2626132165997003</v>
+        <v>0.01823533497861101</v>
       </c>
       <c r="E85">
-        <v>0.02189040944518474</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0980170721178653</v>
+      </c>
+      <c r="F85">
+        <v>0.1451102044823465</v>
+      </c>
+      <c r="G85">
+        <v>-0.07011816448646566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008275936507835705</v>
+        <v>-0.01527135480301601</v>
       </c>
       <c r="C86">
-        <v>-0.02886310181738909</v>
+        <v>-0.02029228704102834</v>
       </c>
       <c r="D86">
-        <v>0.009535422363279596</v>
+        <v>-0.01116797847211709</v>
       </c>
       <c r="E86">
-        <v>0.0281941330709092</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03986207446866105</v>
+      </c>
+      <c r="F86">
+        <v>-0.04893988456890892</v>
+      </c>
+      <c r="G86">
+        <v>0.08300997771145918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008004611288947189</v>
+        <v>-0.02137832044431586</v>
       </c>
       <c r="C87">
-        <v>-0.01429125563675389</v>
+        <v>-0.02418441118960912</v>
       </c>
       <c r="D87">
-        <v>0.04394422193080422</v>
+        <v>-0.01112721571793807</v>
       </c>
       <c r="E87">
-        <v>0.005352112914204535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08329835907667313</v>
+      </c>
+      <c r="F87">
+        <v>-0.02532813714132278</v>
+      </c>
+      <c r="G87">
+        <v>0.05971617934413424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.0281158490767014</v>
+        <v>-0.09252220623983326</v>
       </c>
       <c r="C88">
-        <v>-0.0347610974473398</v>
+        <v>-0.05961078225931823</v>
       </c>
       <c r="D88">
-        <v>0.03693740187200886</v>
+        <v>-0.02275562357095773</v>
       </c>
       <c r="E88">
-        <v>0.001093677735202108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01392141558859362</v>
+      </c>
+      <c r="F88">
+        <v>0.01578103770056555</v>
+      </c>
+      <c r="G88">
+        <v>0.03773051847680317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.07886492244951261</v>
+        <v>-0.2112445806975669</v>
       </c>
       <c r="C89">
-        <v>-0.366869899008597</v>
+        <v>0.3753767798267082</v>
       </c>
       <c r="D89">
-        <v>-0.2387342428006825</v>
+        <v>0.005118960610810286</v>
       </c>
       <c r="E89">
-        <v>0.01119894020993162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02263326658470884</v>
+      </c>
+      <c r="F89">
+        <v>0.02019975954970294</v>
+      </c>
+      <c r="G89">
+        <v>0.03424544360267144</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06038172856231172</v>
+        <v>-0.1884485473610829</v>
       </c>
       <c r="C90">
-        <v>-0.2834027338077072</v>
+        <v>0.3363748173773155</v>
       </c>
       <c r="D90">
-        <v>-0.215242606031094</v>
+        <v>0.009284374530729226</v>
       </c>
       <c r="E90">
-        <v>0.01762683763240257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02180659066177656</v>
+      </c>
+      <c r="F90">
+        <v>0.0412550589609785</v>
+      </c>
+      <c r="G90">
+        <v>0.005047038986418452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.007600451767493896</v>
+        <v>-0.1983479009357237</v>
       </c>
       <c r="C91">
-        <v>-0.1620060451279187</v>
+        <v>-0.1291703129901897</v>
       </c>
       <c r="D91">
-        <v>0.242352362202272</v>
+        <v>0.02420376267586837</v>
       </c>
       <c r="E91">
-        <v>-0.001014880124043919</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07566653328888293</v>
+      </c>
+      <c r="F91">
+        <v>0.1590251600266606</v>
+      </c>
+      <c r="G91">
+        <v>0.009231913770149376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.02742775377661204</v>
+        <v>-0.1909778683400468</v>
       </c>
       <c r="C92">
-        <v>-0.3114351829427068</v>
+        <v>0.2735373520175641</v>
       </c>
       <c r="D92">
-        <v>-0.09624753802664002</v>
+        <v>0.04494299795712846</v>
       </c>
       <c r="E92">
-        <v>0.002433257824756128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.006509278381523688</v>
+      </c>
+      <c r="F92">
+        <v>0.05478044467313573</v>
+      </c>
+      <c r="G92">
+        <v>0.08122653797064995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05872527653840554</v>
+        <v>-0.215123153526052</v>
       </c>
       <c r="C93">
-        <v>-0.3132537301931617</v>
+        <v>0.3312891070576299</v>
       </c>
       <c r="D93">
-        <v>-0.2077327794735614</v>
+        <v>0.01597716599323632</v>
       </c>
       <c r="E93">
-        <v>0.03225805890539332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008567246302675064</v>
+      </c>
+      <c r="F93">
+        <v>0.03292150536471315</v>
+      </c>
+      <c r="G93">
+        <v>0.007204469811537697</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03095249211639</v>
+        <v>-0.3142979281710726</v>
       </c>
       <c r="C94">
-        <v>-0.1918262421110891</v>
+        <v>-0.1645540140785412</v>
       </c>
       <c r="D94">
-        <v>0.2454466881739043</v>
+        <v>0.01692881508686183</v>
       </c>
       <c r="E94">
-        <v>0.04172791285203935</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1571366055743151</v>
+      </c>
+      <c r="F94">
+        <v>0.495096379651105</v>
+      </c>
+      <c r="G94">
+        <v>-0.1866367460294308</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00415445905369627</v>
+        <v>-0.09147577165535831</v>
       </c>
       <c r="C95">
-        <v>-0.04074868181234671</v>
+        <v>-0.08610206779226606</v>
       </c>
       <c r="D95">
-        <v>0.09600050440713899</v>
+        <v>0.006404082308772025</v>
       </c>
       <c r="E95">
-        <v>0.1097395260819838</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.07469275183935763</v>
+      </c>
+      <c r="F95">
+        <v>-0.1920945402931776</v>
+      </c>
+      <c r="G95">
+        <v>-0.08926029753314245</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01528131910499974</v>
+        <v>-0.2008001673042878</v>
       </c>
       <c r="C98">
-        <v>-0.16776410064661</v>
+        <v>-0.04325706833715603</v>
       </c>
       <c r="D98">
-        <v>0.1236363389321847</v>
+        <v>0.01217497702603898</v>
       </c>
       <c r="E98">
-        <v>0.05045116026777163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06942724323144348</v>
+      </c>
+      <c r="F98">
+        <v>-0.2452142815846111</v>
+      </c>
+      <c r="G98">
+        <v>-0.03252083003095101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008104273854655321</v>
+        <v>-0.01118616889707708</v>
       </c>
       <c r="C101">
-        <v>-0.01812832642510821</v>
+        <v>-0.018889299975169</v>
       </c>
       <c r="D101">
-        <v>0.01111256580728333</v>
+        <v>-0.007316156509381582</v>
       </c>
       <c r="E101">
-        <v>-0.009104640632558399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007270494131702188</v>
+      </c>
+      <c r="F101">
+        <v>0.01355554175594658</v>
+      </c>
+      <c r="G101">
+        <v>0.04748925631668763</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01814669140456888</v>
+        <v>-0.1225174630107065</v>
       </c>
       <c r="C102">
-        <v>-0.08389392805559445</v>
+        <v>-0.07820596718642844</v>
       </c>
       <c r="D102">
-        <v>0.1255459554581564</v>
+        <v>-0.0009368533478792713</v>
       </c>
       <c r="E102">
-        <v>0.005741189122506214</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03376437060902827</v>
+      </c>
+      <c r="F102">
+        <v>0.04283884791961817</v>
+      </c>
+      <c r="G102">
+        <v>-3.289981091968438e-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001942873818646089</v>
+        <v>-0.003349090191720042</v>
       </c>
       <c r="C103">
-        <v>-0.01108034244797559</v>
+        <v>-0.0035698211204098</v>
       </c>
       <c r="D103">
-        <v>0.02253509644645407</v>
+        <v>-0.0002362131241338466</v>
       </c>
       <c r="E103">
-        <v>-0.0116715852218662</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002917651382584246</v>
+      </c>
+      <c r="F103">
+        <v>0.005700407924632115</v>
+      </c>
+      <c r="G103">
+        <v>0.01293877985445189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9763422063770834</v>
+        <v>-0.02498915600958613</v>
       </c>
       <c r="C104">
-        <v>0.1692153722296629</v>
+        <v>0.03930156726595144</v>
       </c>
       <c r="D104">
-        <v>-0.007106414722224867</v>
+        <v>-0.9872339289641721</v>
       </c>
       <c r="E104">
-        <v>-0.02596895890763049</v>
+        <v>0.04344773595875834</v>
+      </c>
+      <c r="F104">
+        <v>0.04399137944214664</v>
+      </c>
+      <c r="G104">
+        <v>-0.01202521672642686</v>
       </c>
     </row>
   </sheetData>
